--- a/html_lib.xlsx
+++ b/html_lib.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,23 +15,236 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Code Ref</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>standard structure</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+ &lt;html lang="en"&gt;
+ &lt;head&gt;
+ &lt;meta charset="utf-8" /&gt;
+ &lt;title&gt;&lt;/title&gt;
+ &lt;/head&gt;
+ &lt;body&gt;
+ &lt;/body&gt;
+ &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>h1-6</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Barcelona's Architect&lt;/h1&gt;
+ &lt;h2 lang="es"&gt;La Sagrada Família&lt;/h2&gt;
+ &lt;h2&gt;Park Guell&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>class attribute</t>
+  </si>
+  <si>
+    <t>&lt;p class="subhead"&gt;Animals WorldwideRejoice&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>&lt;!-- ==== 开始页面级页眉 ==== --&gt;</t>
+  </si>
+  <si>
+    <t>語義文件結構</t>
+  </si>
+  <si>
+    <t>&lt;body&gt;
+ &lt;!-- ==== 开始页面级页眉 ==== --&gt;
+ &lt;header role="banner"&gt;
+ &lt;!-- 站点标识可以放在这里 --&gt;
+ &lt;!-- 全站导航 --&gt;
+ &lt;nav role="navigation"&gt;
+ &lt;ul&gt; ... &lt;/ul&gt;
+ &lt;/nav&gt;
+ &lt;/header&gt;
+ &lt;!-- ==== 开始主要内容 ==== --&gt;
+ &lt;main role="main"&gt;
+ &lt;h1&gt;Arts &amp; Entertainment: Museums
+ ➝ &lt;/h1&gt;
+ &lt;article&gt;
+ &lt;h2&gt;Gallery Opening Features the
+ ➝ Inspired, Inspiring&lt;/h2&gt;
+ &lt;p&gt;... [故事内容] ... &lt;/p&gt;
+ &lt;/article&gt;
+ &lt;aside&gt;
+ &lt;h2&gt;Other Stories&lt;/h2&gt;
+ &lt;!-- 没有包含在nav里 --&gt;
+ &lt;ul&gt; ... [故事链接] ... &lt;/ul&gt;
+ &lt;/aside&gt;
+ &lt;/main&gt;
+ &lt;!-- ==== 开始附注栏 ==== --&gt;
+ &lt;aside&gt;
+ &lt;!-- 次级导航 --&gt;
+ &lt;nav role="navigation"&gt;
+ &lt;ul&gt;
+ &lt;li&gt;&lt;a href="/arts/movies/"&gt;
+ ➝ Movies&lt;/a&gt;&lt;/li&gt;
+ &lt;li&gt;&lt;a href="/arts/music/"&gt;
+ ➝ Music&lt;/a&gt;&lt;/li&gt;
+ ...
+ &lt;/ul&gt;
+ &lt;/nav&gt;
+ &lt;/aside&gt;
+ &lt;!-- ==== 开始页面级页脚 ==== --&gt;
+ &lt;footer role="contentinfo"&gt;
+ &lt;!-- 辅助性链接并未包在nav中 --&gt;
+ &lt;ul&gt; ... &lt;/ul&gt;
+ &lt;/footer&gt;
+ &lt;/body&gt;
+ &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>ul-li</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;&lt;a href="indexi.html"&gt;HOME&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="joini.html"&gt;JOIN&lt;/a&gt;
+  &lt;ul&gt;
+  &lt;li&gt;&lt;a href="joini.html"&gt;MAKE A QUEST&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="joini.html"&gt;GET A MISSION&lt;/a&gt;&lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;/li&gt;
+  &lt;li&gt;&lt;a href="techi.html"&gt;TECH&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="storyi.html"&gt;STORY&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="heroi.html"&gt;HERO&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;&lt;a href="abouti.html"&gt;ABOUT&lt;/a&gt;&lt;/li&gt;
+  &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>ARIA role 属性</t>
+  </si>
+  <si>
+    <t>&lt;header role="banner"&gt;
+ &lt;nav role="navigation"&gt;
+ &lt;main role="main"&gt;
+ &lt;aside role="complementary"&gt;
+ &lt;footer role="contentinfo"&gt;</t>
+  </si>
+  <si>
+    <t>div通用容器</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>div+id+a</t>
+  </si>
+  <si>
+    <t>&lt;a href="#gaudi"&gt;Barcelona's Architect&lt;/a&gt;
+ &lt;div id="gaudi"&gt;This is div element&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Class, id</t>
+  </si>
+  <si>
+    <t>HTML 文档中的每个id 都必须是唯一的。换句话说，一个页面里不能出现两个具有相同id 的元素，并且每个元素都只能有一个id。相同的id 可以出现在不同的页面里，同一id 也不一定每次都赋给同一元素，尽管这是惯常的做法。 相反，一个class 名称可以分配给页面中任意数量的元素，并且一个元素可以有一个以上的class。 在class 和id 名称中，通常使用短横线分隔多个单词，例如class="footer-page"</t>
+  </si>
+  <si>
+    <t>換行</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>同div 一样，span 元素是没有任何语义的。不同的是，span 只适合包围字词或短语内容，而div 适合包含块级内容（参见3.12 节）。</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Please wait while we save your data.&lt;/p&gt;
+ &lt;p&gt;Current progress: 
+  &lt;progress max="100" value="37"&gt;37% saved&lt;/progress&gt;
+ &lt;/p&gt;
+ 对progress 的完整说明已经超出了本书的范围。通常，你只能通过JavaScript 动态地更新value 属性值和元素里面的文本以指示任务进程（例如，指示已完成37%）。</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>&lt;img src="stupas.jpg" alt="Two Stupas" width="220" height="170" alt="" /&gt;
+ Alt在不能顯示圖片時代為顯示</t>
+  </si>
+  <si>
+    <t>Retina</t>
+  </si>
+  <si>
+    <t>苹果的Ritina 显示屏就像第二张画。在相同的空间里，它拥有的像素数量是普通显示屏的像素数量的四倍, 如果你想让图像在所有的显示屏（并非只是Retina 显示屏）上都是40×30 的尺寸（此处及以下尺寸单位均为像素），就应该创建80×60 大小的图像，而代码写作&lt;img src="photo.jpg" width="40" height="30" alt="" /&gt;。浏览器会将80×60 的图像缩小，以40×30 的尺寸显示</t>
+  </si>
+  <si>
+    <t>mailto</t>
+  </si>
+  <si>
+    <t>&lt;a href="mailto:name@domain.com" &gt;Mail&lt;/a&gt;</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,19 +259,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -132,6 +354,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -166,6 +389,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +565,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="83.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>